--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC85-TORNILLERA 4.5-6.5 TIT. #3.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC85-TORNILLERA 4.5-6.5 TIT. #3.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CBDB03-1E76-4FFC-B29D-5F057039D421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,12 +36,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Asus</author>
   </authors>
   <commentList>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0">
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +137,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="267">
   <si>
     <t>FECHA DE EMISIÓN:</t>
   </si>
@@ -934,12 +935,15 @@
   </si>
   <si>
     <t xml:space="preserve">N2306000712 </t>
+  </si>
+  <si>
+    <t>2100002629</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -1571,19 +1575,19 @@
     </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Moneda 2" xfId="6"/>
-    <cellStyle name="Moneda 3" xfId="10"/>
+    <cellStyle name="Moneda 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Moneda 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="7"/>
-    <cellStyle name="Normal 2 3" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="11"/>
-    <cellStyle name="Normal 3 2" xfId="12"/>
-    <cellStyle name="Porcentaje 2" xfId="8"/>
-    <cellStyle name="常规 3" xfId="4"/>
-    <cellStyle name="常规 4" xfId="2"/>
-    <cellStyle name="常规 5" xfId="5"/>
-    <cellStyle name="常规_PI2012BMC03" xfId="9"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="11" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Porcentaje 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="常规 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="常规 4" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="常规 5" xfId="5" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="常规_PI2012BMC03" xfId="9" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1943,26 +1947,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="79.81640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="22.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15.81640625" style="9" customWidth="1"/>
-    <col min="8" max="16384" width="11.453125" style="9"/>
+    <col min="1" max="1" width="23.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="79.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="16" thickBot="1">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="3"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -1970,7 +1974,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="16" thickBot="1">
+    <row r="3" spans="1:9" ht="16.5" thickBot="1">
       <c r="A3" s="35"/>
       <c r="B3" s="36"/>
       <c r="C3" s="56" t="s">
@@ -1982,7 +1986,7 @@
       <c r="E3" s="59"/>
       <c r="F3" s="37"/>
     </row>
-    <row r="4" spans="1:9" ht="16" thickBot="1">
+    <row r="4" spans="1:9" ht="16.5" thickBot="1">
       <c r="A4" s="38"/>
       <c r="B4" s="39"/>
       <c r="C4" s="57"/>
@@ -1992,7 +1996,7 @@
       <c r="E4" s="41"/>
       <c r="F4" s="37"/>
     </row>
-    <row r="5" spans="1:9" ht="16" thickBot="1">
+    <row r="5" spans="1:9" ht="16.5" thickBot="1">
       <c r="A5" s="38"/>
       <c r="B5" s="39"/>
       <c r="C5" s="60" t="s">
@@ -2004,7 +2008,7 @@
       <c r="E5" s="63"/>
       <c r="F5" s="37"/>
     </row>
-    <row r="6" spans="1:9" ht="23.5" thickBot="1">
+    <row r="6" spans="1:9" ht="24" thickBot="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43"/>
       <c r="C6" s="61"/>
@@ -2014,14 +2018,14 @@
       <c r="E6" s="65"/>
       <c r="F6" s="44"/>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="8" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2037,7 +2041,7 @@
       </c>
       <c r="G8" s="34"/>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -2045,7 +2049,7 @@
       <c r="E9" s="10"/>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>2</v>
       </c>
@@ -2061,7 +2065,7 @@
       <c r="H10" s="53"/>
       <c r="I10" s="53"/>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2071,7 +2075,7 @@
       <c r="H11" s="53"/>
       <c r="I11" s="53"/>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="54" t="s">
         <v>187</v>
       </c>
@@ -2089,7 +2093,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2099,7 +2103,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
@@ -2117,7 +2121,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2127,7 +2131,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>6</v>
       </c>
@@ -2145,7 +2149,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -2155,7 +2159,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>8</v>
       </c>
@@ -2169,7 +2173,7 @@
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
     </row>
-    <row r="19" spans="1:9" s="3" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -2179,7 +2183,7 @@
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
     </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="20" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>9</v>
       </c>
@@ -2193,7 +2197,7 @@
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -2203,7 +2207,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="22" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="7" t="s">
         <v>195</v>
       </c>
@@ -2215,7 +2219,7 @@
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="9"/>
       <c r="B23" s="24"/>
       <c r="C23" s="9"/>
@@ -2226,7 +2230,7 @@
       <c r="H23" s="22"/>
       <c r="I23" s="22"/>
     </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="24" spans="1:9" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="52" t="s">
         <v>62</v>
       </c>
@@ -2454,7 +2458,7 @@
         <v>94</v>
       </c>
       <c r="D35" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35" s="29"/>
       <c r="F35" s="30"/>
@@ -2916,7 +2920,7 @@
       <c r="C59" s="32"/>
       <c r="D59" s="50">
         <f>SUM(D26:D58)</f>
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E59" s="29"/>
       <c r="F59" s="30"/>
@@ -3413,12 +3417,14 @@
       <c r="A85" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="B85" s="31"/>
+      <c r="B85" s="31" t="s">
+        <v>266</v>
+      </c>
       <c r="C85" s="32" t="s">
         <v>82</v>
       </c>
       <c r="D85" s="33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E85" s="29"/>
       <c r="F85" s="30"/>
@@ -3549,7 +3555,7 @@
       <c r="C92" s="32"/>
       <c r="D92" s="50">
         <f>SUM(D60:D91)</f>
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E92" s="29"/>
       <c r="F92" s="30"/>
@@ -3870,7 +3876,7 @@
       <c r="F110" s="30"/>
       <c r="G110" s="30"/>
     </row>
-    <row r="111" spans="1:7" s="27" customFormat="1">
+    <row r="111" spans="1:7" s="27" customFormat="1" ht="15.75">
       <c r="A111" s="49" t="s">
         <v>116</v>
       </c>
@@ -3904,7 +3910,7 @@
       <c r="F112" s="30"/>
       <c r="G112" s="30"/>
     </row>
-    <row r="113" spans="1:7" s="28" customFormat="1" ht="20.149999999999999" customHeight="1">
+    <row r="113" spans="1:7" s="28" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A113" s="49" t="s">
         <v>118</v>
       </c>
